--- a/filename.xlsx
+++ b/filename.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
   <si>
     <t>STATUT</t>
   </si>
@@ -116,6 +116,657 @@
   </si>
   <si>
     <t>SSA124838</t>
+  </si>
+  <si>
+    <t>ACCES INDUSTRIE</t>
+  </si>
+  <si>
+    <t>F19N2049</t>
+  </si>
+  <si>
+    <t>5120102747</t>
+  </si>
+  <si>
+    <t>411,9</t>
+  </si>
+  <si>
+    <t>494,28</t>
+  </si>
+  <si>
+    <t>29-11-2019</t>
+  </si>
+  <si>
+    <t>28-01-2020</t>
+  </si>
+  <si>
+    <t>INEO LOGISTIQUE</t>
+  </si>
+  <si>
+    <t>SLG3C2322</t>
+  </si>
+  <si>
+    <t>RECH ETUD NEGOC ELECTRON SYST COMMU</t>
+  </si>
+  <si>
+    <t>70158265</t>
+  </si>
+  <si>
+    <t>5120682799</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>31192,8</t>
+  </si>
+  <si>
+    <t>16-02-2020</t>
+  </si>
+  <si>
+    <t>16-04-2020</t>
+  </si>
+  <si>
+    <t>INEO ATLANTIQUE</t>
+  </si>
+  <si>
+    <t>STL100041</t>
+  </si>
+  <si>
+    <t>70158266</t>
+  </si>
+  <si>
+    <t>5120529517</t>
+  </si>
+  <si>
+    <t>8800</t>
+  </si>
+  <si>
+    <t>10560</t>
+  </si>
+  <si>
+    <t>BEST TRANSPORT AB</t>
+  </si>
+  <si>
+    <t>551031466</t>
+  </si>
+  <si>
+    <t>5120669368</t>
+  </si>
+  <si>
+    <t>1096</t>
+  </si>
+  <si>
+    <t>1370</t>
+  </si>
+  <si>
+    <t>SEK</t>
+  </si>
+  <si>
+    <t>22-03-2020</t>
+  </si>
+  <si>
+    <t>21-04-2020</t>
+  </si>
+  <si>
+    <t>Nils MALLROTH</t>
+  </si>
+  <si>
+    <t>ICOMERA AB</t>
+  </si>
+  <si>
+    <t>SKA102072</t>
+  </si>
+  <si>
+    <t>5120529442</t>
+  </si>
+  <si>
+    <t>25994</t>
+  </si>
+  <si>
+    <t>HILTI FRANCE 78</t>
+  </si>
+  <si>
+    <t>FM4098089084</t>
+  </si>
+  <si>
+    <t>5119933960</t>
+  </si>
+  <si>
+    <t>47,68</t>
+  </si>
+  <si>
+    <t>57,22</t>
+  </si>
+  <si>
+    <t>31-10-2019</t>
+  </si>
+  <si>
+    <t>30-12-2019</t>
+  </si>
+  <si>
+    <t>FM4098089137</t>
+  </si>
+  <si>
+    <t>5119934040</t>
+  </si>
+  <si>
+    <t>84,21</t>
+  </si>
+  <si>
+    <t>101,05</t>
+  </si>
+  <si>
+    <t>4098190293</t>
+  </si>
+  <si>
+    <t>5120063943</t>
+  </si>
+  <si>
+    <t>82,94</t>
+  </si>
+  <si>
+    <t>99,53</t>
+  </si>
+  <si>
+    <t>25-11-2019</t>
+  </si>
+  <si>
+    <t>24-01-2020</t>
+  </si>
+  <si>
+    <t>PHILIPPE ROUSSEL</t>
+  </si>
+  <si>
+    <t>INEO CENTRE</t>
+  </si>
+  <si>
+    <t>A.CN6.20174</t>
+  </si>
+  <si>
+    <t>FM4096331308</t>
+  </si>
+  <si>
+    <t>5118039360</t>
+  </si>
+  <si>
+    <t>118,51</t>
+  </si>
+  <si>
+    <t>142,21</t>
+  </si>
+  <si>
+    <t>30-09-2018</t>
+  </si>
+  <si>
+    <t>14-12-2018</t>
+  </si>
+  <si>
+    <t>INEO INDUSTRIE &amp; TERT EST</t>
+  </si>
+  <si>
+    <t>SEY500072</t>
+  </si>
+  <si>
+    <t>AJF FORMATION</t>
+  </si>
+  <si>
+    <t>JLLD200062</t>
+  </si>
+  <si>
+    <t>5120666681</t>
+  </si>
+  <si>
+    <t>1160</t>
+  </si>
+  <si>
+    <t>1392</t>
+  </si>
+  <si>
+    <t>11-03-2020</t>
+  </si>
+  <si>
+    <t>10-04-2020</t>
+  </si>
+  <si>
+    <t>BERTRAND LEFIEVRE,Pascale BLASSET</t>
+  </si>
+  <si>
+    <t>INEO HAUTS-DE-FRANCE</t>
+  </si>
+  <si>
+    <t>SNP300097,SNP500097</t>
+  </si>
+  <si>
+    <t>MULTI</t>
+  </si>
+  <si>
+    <t>RS COMPONENTS LIMITED</t>
+  </si>
+  <si>
+    <t>296673518</t>
+  </si>
+  <si>
+    <t>5120653402</t>
+  </si>
+  <si>
+    <t>212,94</t>
+  </si>
+  <si>
+    <t>255,53</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>14-01-2020</t>
+  </si>
+  <si>
+    <t>19-02-2020</t>
+  </si>
+  <si>
+    <t>ICOMERA UK</t>
+  </si>
+  <si>
+    <t>A.KB1.19902</t>
+  </si>
+  <si>
+    <t>RE4097379529</t>
+  </si>
+  <si>
+    <t>5120743100</t>
+  </si>
+  <si>
+    <t>391</t>
+  </si>
+  <si>
+    <t>469,2</t>
+  </si>
+  <si>
+    <t>22-05-2019</t>
+  </si>
+  <si>
+    <t>21-07-2019</t>
+  </si>
+  <si>
+    <t>Nicolas VALLEE</t>
+  </si>
+  <si>
+    <t>A.TL4.46037</t>
+  </si>
+  <si>
+    <t>INEO POSTES ET CENTRALES</t>
+  </si>
+  <si>
+    <t>8490017530</t>
+  </si>
+  <si>
+    <t>5120692658</t>
+  </si>
+  <si>
+    <t>95174</t>
+  </si>
+  <si>
+    <t>114208,8</t>
+  </si>
+  <si>
+    <t>31-03-2020</t>
+  </si>
+  <si>
+    <t>30-04-2020</t>
+  </si>
+  <si>
+    <t>INEO CCN</t>
+  </si>
+  <si>
+    <t>A.CC1.20038</t>
+  </si>
+  <si>
+    <t>LEGALLAIS</t>
+  </si>
+  <si>
+    <t>20142050</t>
+  </si>
+  <si>
+    <t>5120667144</t>
+  </si>
+  <si>
+    <t>251,5</t>
+  </si>
+  <si>
+    <t>301,8</t>
+  </si>
+  <si>
+    <t>12-04-2020</t>
+  </si>
+  <si>
+    <t>Patrick Fayet</t>
+  </si>
+  <si>
+    <t>A.PS1.P3034</t>
+  </si>
+  <si>
+    <t>FARNELL FRANCE</t>
+  </si>
+  <si>
+    <t>198216</t>
+  </si>
+  <si>
+    <t>5120671282</t>
+  </si>
+  <si>
+    <t>94,86</t>
+  </si>
+  <si>
+    <t>113,83</t>
+  </si>
+  <si>
+    <t>20-03-2020</t>
+  </si>
+  <si>
+    <t>11-05-2020</t>
+  </si>
+  <si>
+    <t>Yves BALAVOINE</t>
+  </si>
+  <si>
+    <t>SCLE SFE</t>
+  </si>
+  <si>
+    <t>A.FE1.B224C</t>
+  </si>
+  <si>
+    <t>ACCEDIA DISTRIBUTION</t>
+  </si>
+  <si>
+    <t>3202392</t>
+  </si>
+  <si>
+    <t>5120667218</t>
+  </si>
+  <si>
+    <t>24,38</t>
+  </si>
+  <si>
+    <t>29,26</t>
+  </si>
+  <si>
+    <t>12-03-2020</t>
+  </si>
+  <si>
+    <t>16-11-2018</t>
+  </si>
+  <si>
+    <t>XAVIER HAMELAIN</t>
+  </si>
+  <si>
+    <t>INEO MPLR</t>
+  </si>
+  <si>
+    <t>A.MP6.EO712</t>
+  </si>
+  <si>
+    <t>4097787852</t>
+  </si>
+  <si>
+    <t>5119616675</t>
+  </si>
+  <si>
+    <t>71,37</t>
+  </si>
+  <si>
+    <t>85,64</t>
+  </si>
+  <si>
+    <t>31-08-2019</t>
+  </si>
+  <si>
+    <t>30-10-2019</t>
+  </si>
+  <si>
+    <t>SLG1C1301</t>
+  </si>
+  <si>
+    <t>WURTH FRANCE</t>
+  </si>
+  <si>
+    <t>534415</t>
+  </si>
+  <si>
+    <t>5120687214</t>
+  </si>
+  <si>
+    <t>23,73</t>
+  </si>
+  <si>
+    <t>28,48</t>
+  </si>
+  <si>
+    <t>Amine BENMAGHNIA</t>
+  </si>
+  <si>
+    <t>A.NP1.A8902</t>
+  </si>
+  <si>
+    <t>4098691629</t>
+  </si>
+  <si>
+    <t>5120639502</t>
+  </si>
+  <si>
+    <t>295,67</t>
+  </si>
+  <si>
+    <t>354,8</t>
+  </si>
+  <si>
+    <t>10-05-2020</t>
+  </si>
+  <si>
+    <t>Alexis COTTREAU</t>
+  </si>
+  <si>
+    <t>INEO ENERGY ET SYSTEMS</t>
+  </si>
+  <si>
+    <t>A.ES2.19205</t>
+  </si>
+  <si>
+    <t>FM4098080675</t>
+  </si>
+  <si>
+    <t>5119965206</t>
+  </si>
+  <si>
+    <t>Rhani HAFIS</t>
+  </si>
+  <si>
+    <t>I.LG1.11085,SLG1C1301</t>
+  </si>
+  <si>
+    <t>FM4098481175</t>
+  </si>
+  <si>
+    <t>5120702150</t>
+  </si>
+  <si>
+    <t>109,33</t>
+  </si>
+  <si>
+    <t>31-01-2020</t>
+  </si>
+  <si>
+    <t>FM4098089067</t>
+  </si>
+  <si>
+    <t>5119933943</t>
+  </si>
+  <si>
+    <t>53,46</t>
+  </si>
+  <si>
+    <t>64,15</t>
+  </si>
+  <si>
+    <t>FM4098088043</t>
+  </si>
+  <si>
+    <t>5119933450</t>
+  </si>
+  <si>
+    <t>30,39</t>
+  </si>
+  <si>
+    <t>36,47</t>
+  </si>
+  <si>
+    <t>SLG5C2124</t>
+  </si>
+  <si>
+    <t>4091382074</t>
+  </si>
+  <si>
+    <t>5112855415</t>
+  </si>
+  <si>
+    <t>209,7</t>
+  </si>
+  <si>
+    <t>21-05-2015</t>
+  </si>
+  <si>
+    <t>14-07-2015</t>
+  </si>
+  <si>
+    <t>Thibaut RICHARD</t>
+  </si>
+  <si>
+    <t>INEO PROVENCE COTE D'AZUR</t>
+  </si>
+  <si>
+    <t>A.PC3.35801</t>
+  </si>
+  <si>
+    <t>FM4097274563</t>
+  </si>
+  <si>
+    <t>5119023954</t>
+  </si>
+  <si>
+    <t>30-04-2019</t>
+  </si>
+  <si>
+    <t>29-06-2019</t>
+  </si>
+  <si>
+    <t>SLG3C2124</t>
+  </si>
+  <si>
+    <t>FM4097281246</t>
+  </si>
+  <si>
+    <t>5119030810</t>
+  </si>
+  <si>
+    <t>4098214030</t>
+  </si>
+  <si>
+    <t>5120096091</t>
+  </si>
+  <si>
+    <t>30-11-2019</t>
+  </si>
+  <si>
+    <t>29-01-2020</t>
+  </si>
+  <si>
+    <t>[object Object]</t>
+  </si>
+  <si>
+    <t>AVATH</t>
+  </si>
+  <si>
+    <t>FA141631</t>
+  </si>
+  <si>
+    <t>5120647565</t>
+  </si>
+  <si>
+    <t>12,98</t>
+  </si>
+  <si>
+    <t>15,58</t>
+  </si>
+  <si>
+    <t>28-02-2020</t>
+  </si>
+  <si>
+    <t>13-04-2020</t>
+  </si>
+  <si>
+    <t>PATRICIA MIGNAULT</t>
+  </si>
+  <si>
+    <t>INEO NUCLEAIRE</t>
+  </si>
+  <si>
+    <t>SNE100072</t>
+  </si>
+  <si>
+    <t>4093872274</t>
+  </si>
+  <si>
+    <t>5115640361</t>
+  </si>
+  <si>
+    <t>2272,26</t>
+  </si>
+  <si>
+    <t>09-02-2017</t>
+  </si>
+  <si>
+    <t>10-04-2017</t>
+  </si>
+  <si>
+    <t>PHILIPPE LOCHE</t>
+  </si>
+  <si>
+    <t>EPR FLAMANVILLE</t>
+  </si>
+  <si>
+    <t>G.YJA.100CG/S</t>
+  </si>
+  <si>
+    <t>4098860687</t>
+  </si>
+  <si>
+    <t>5120792478</t>
+  </si>
+  <si>
+    <t>4672,99</t>
+  </si>
+  <si>
+    <t>5607,59</t>
+  </si>
+  <si>
+    <t>28-11-2019</t>
+  </si>
+  <si>
+    <t>Vincent DEJAEGERE</t>
+  </si>
+  <si>
+    <t>A.PS2.D3030</t>
+  </si>
+  <si>
+    <t>FM4097166206</t>
+  </si>
+  <si>
+    <t>5118887855</t>
+  </si>
+  <si>
+    <t>31-03-2019</t>
+  </si>
+  <si>
+    <t>30-05-2019</t>
   </si>
 </sst>
 </file>
@@ -155,7 +806,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -328,6 +979,1364 @@
         <v>22</v>
       </c>
     </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="N30" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="N31" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="L34" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="M34" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="N34" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="L35" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
